--- a/medicine/Maladies infectieuses/Ozenoxacine/Ozenoxacine.xlsx
+++ b/medicine/Maladies infectieuses/Ozenoxacine/Ozenoxacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ozenoxacine est un antibiotique de type quinolone non fluoré, disponible, au Japon sous forme de crème pour les infections cutanées.
 </t>
@@ -511,9 +523,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est actif contre le staphylocoque doré, dont les formes résistantes à la méthicilline, le streptococcus pneumoniae, le propionibacterium acnes[1], ainsi que sur des germes résistants aux autres quinolones[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est actif contre le staphylocoque doré, dont les formes résistantes à la méthicilline, le streptococcus pneumoniae, le propionibacterium acnes, ainsi que sur des germes résistants aux autres quinolones.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous forme de crème et appliquée sur la peau, il ne pénètre guère dans le sang[3], ni même dans le derme[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous forme de crème et appliquée sur la peau, il ne pénètre guère dans le sang, ni même dans le derme.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'impétigo, elle est comparable à celle de la rétapamuline[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'impétigo, elle est comparable à celle de la rétapamuline.
 </t>
         </is>
       </c>
